--- a/reports.xlsx
+++ b/reports.xlsx
@@ -391,6 +391,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/reports.xlsx
+++ b/reports.xlsx
@@ -384,6 +384,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3"/>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
